--- a/files/test/ppt/embeddings/Microsoft_Excel____5.xlsx
+++ b/files/test/ppt/embeddings/Microsoft_Excel____5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>銷售</t>
-  </si>
-  <si>
-    <t>第一季</t>
-  </si>
-  <si>
-    <t>第二季</t>
-  </si>
-  <si>
-    <t>第三季</t>
-  </si>
-  <si>
-    <t>第四季</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>數列 1</t>
+  </si>
+  <si>
+    <t>數列 2</t>
+  </si>
+  <si>
+    <t>1/5/2002</t>
+  </si>
+  <si>
+    <t>1/6/2002</t>
+  </si>
+  <si>
+    <t>1/7/2002</t>
+  </si>
+  <si>
+    <t>1/8/2002</t>
+  </si>
+  <si>
+    <t>1/9/2002</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -106,10 +112,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:B5" totalsRowShown="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:C6" totalsRowShown="0">
+  <tableColumns count="3">
     <tableColumn id="1" name=" "/>
-    <tableColumn id="2" name="銷售"/>
+    <tableColumn id="2" name="數列 1"/>
+    <tableColumn id="3" name="數列 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -378,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -386,44 +393,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
